--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1643.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1643.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.02257189222041</v>
+        <v>1.918431162834167</v>
       </c>
       <c r="B1">
-        <v>3.180151170301552</v>
+        <v>3.57275128364563</v>
       </c>
       <c r="C1">
-        <v>3.437924061596661</v>
+        <v>3.298248291015625</v>
       </c>
       <c r="D1">
-        <v>2.390226626054528</v>
+        <v>3.576974391937256</v>
       </c>
       <c r="E1">
-        <v>1.224111402582939</v>
+        <v>1.2140212059021</v>
       </c>
     </row>
   </sheetData>
